--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BD576B7F-EC3D-464E-8167-FEE4ACD61AA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8576C13-BD7B-4F66-9E5F-FEAC53B06D90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{31FC31E5-BF5D-4DF9-8764-C97F6AC0BEA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8496" activeTab="3" xr2:uid="{31FC31E5-BF5D-4DF9-8764-C97F6AC0BEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="287">
   <si>
     <t>Case</t>
   </si>
@@ -1013,6 +1013,17 @@
   </si>
   <si>
     <t xml:space="preserve">37 Jalan Pemimpin </t>
+  </si>
+  <si>
+    <t>Case 91 is a 58 year-old female Singapore Citizen who has no recent travel history to China. She is linked to Case 66 [1].
+She reported onset of symptoms on 23 January and had sought treatment at a general practitioner (GP) clinic on 1 February, 6 February and 10 February. As she had been identified as a contact of Case 66, she was referred by MOH to the National Centre for Infectious Diseases (NCID) on 18 February. Subsequent test results confirmed COVID-19 infection on 22 February afternoon.
+Prior to hospital admission, she had mostly stayed at her home at Rivervale Drive.</t>
+  </si>
+  <si>
+    <t>https://www.moh.gov.sg/news-highlights/details/five-more-cases-discharged-one-new-case-of-covid-19-infection-confirmed</t>
+  </si>
+  <si>
+    <t>Rivervale Drive+</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1073,12 +1084,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1099,6 +1121,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1414,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446A3E6-F17E-4B11-AD9A-9AB436390748}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3139,7 +3166,9 @@
       <c r="F59" s="2">
         <v>43874</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="8">
+        <v>43886</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3257,7 +3286,9 @@
       <c r="F63" s="2">
         <v>43875</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="8">
+        <v>43886</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,7 +3732,9 @@
       <c r="F78" s="2">
         <v>43878</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="8">
+        <v>43886</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
         <v>135</v>
@@ -3817,7 +3850,9 @@
       <c r="F82" s="2">
         <v>43879</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="8">
+        <v>43886</v>
+      </c>
       <c r="H82" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,6 +4123,38 @@
       </c>
       <c r="J91" s="5" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="12">
+        <v>58</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F92" s="8">
+        <v>43886</v>
+      </c>
+      <c r="G92" s="8">
+        <v>43886</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4157,17 +4224,20 @@
     <hyperlink ref="J89" r:id="rId62" xr:uid="{1EDA0780-F1DC-4359-98E6-960143647081}"/>
     <hyperlink ref="J90" r:id="rId63" xr:uid="{34152B56-0E35-407A-8784-9E785E682D63}"/>
     <hyperlink ref="J91" r:id="rId64" xr:uid="{74CC21D3-E61D-43D5-A4B4-66AEB10AA62B}"/>
+    <hyperlink ref="J92" r:id="rId65" xr:uid="{5EDC8036-ECDC-4E37-AA54-E82FECAD9C1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9B1DB-C53A-41F7-AC4E-BD46A120BB0C}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5912,16 +5982,30 @@
         <v>246</v>
       </c>
     </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="12">
+        <v>91</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B243B7E-17EC-4ACA-9A5D-A77F5A691D42}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6281,6 +6365,17 @@
         <v>66</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>91</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="12">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6288,9 +6383,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E4A12-2052-4624-AAAD-318DC55C3243}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N35" sqref="A35:N35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6373,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:E34" si="0">B3+C2</f>
+        <f t="shared" ref="C3:E35" si="0">B3+C2</f>
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -7412,6 +7509,42 @@
         <v>1986</v>
       </c>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="F35" s="6">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="6">
+        <v>2846</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="6">
+        <v>371</v>
+      </c>
+      <c r="N35" s="6">
+        <v>2475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8576C13-BD7B-4F66-9E5F-FEAC53B06D90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100008_{FDDA85B2-9F5E-4F84-A6E5-329306635A82}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8496" activeTab="3" xr2:uid="{31FC31E5-BF5D-4DF9-8764-C97F6AC0BEA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="8496" xr2:uid="{31FC31E5-BF5D-4DF9-8764-C97F6AC0BEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="290">
   <si>
     <t>Case</t>
   </si>
@@ -1024,6 +1024,15 @@
   </si>
   <si>
     <t>Rivervale Drive+</t>
+  </si>
+  <si>
+    <t>Case 92 is a 47 year-old male Singapore Citizen who has no recent travel history to China. He was confirmed to have COVID-19 infection on 26 February morning and is currently warded in an isolation room at Sengkang General Hospital.</t>
+  </si>
+  <si>
+    <t>Case 93 is a 38 year-old male Singapore Citizen who has no recent travel history to China. He was confirmed to have COVID-19 infection on 26 February morning and is currently warded in an isolation room at Ng Teng Fong General Hospital.</t>
+  </si>
+  <si>
+    <t>https://www.moh.gov.sg/news-highlights/details/four-more-cases-discharged-two-new-cases-of-covid-19-infection-confirmed</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1122,10 +1131,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1441,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446A3E6-F17E-4B11-AD9A-9AB436390748}">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4126,35 +4131,91 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="6">
         <v>58</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="2">
         <v>43886</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="2">
         <v>43886</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="12" t="s">
+      <c r="I92" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J92" s="14" t="s">
+      <c r="J92" s="5" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="6">
+        <v>47</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43887</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="6">
+        <v>38</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F94" s="2">
+        <v>43887</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4225,9 +4286,11 @@
     <hyperlink ref="J90" r:id="rId63" xr:uid="{34152B56-0E35-407A-8784-9E785E682D63}"/>
     <hyperlink ref="J91" r:id="rId64" xr:uid="{74CC21D3-E61D-43D5-A4B4-66AEB10AA62B}"/>
     <hyperlink ref="J92" r:id="rId65" xr:uid="{5EDC8036-ECDC-4E37-AA54-E82FECAD9C1D}"/>
+    <hyperlink ref="J93" r:id="rId66" xr:uid="{178FD449-C08B-4893-88DE-0D1B65F4AC2A}"/>
+    <hyperlink ref="J94" r:id="rId67" xr:uid="{7F2962AC-73BE-4C23-9085-2366F7784E50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -6383,10 +6446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E4A12-2052-4624-AAAD-318DC55C3243}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N35" sqref="A35:N35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N36" sqref="A36:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6470,7 +6533,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:E35" si="0">B3+C2</f>
+        <f t="shared" ref="C3:E36" si="0">B3+C2</f>
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -7545,6 +7608,42 @@
         <v>2475</v>
       </c>
     </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D36" s="6">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="F36" s="6">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="6">
+        <v>2848</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="6">
+        <v>259</v>
+      </c>
+      <c r="N36" s="6">
+        <v>2589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
